--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H2">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03092266666666666</v>
+        <v>0.4660823333333333</v>
       </c>
       <c r="N2">
-        <v>0.09276799999999999</v>
+        <v>1.398247</v>
       </c>
       <c r="O2">
-        <v>0.001677719987796164</v>
+        <v>0.02470419871925173</v>
       </c>
       <c r="P2">
-        <v>0.001677719987796164</v>
+        <v>0.02470419871925173</v>
       </c>
       <c r="Q2">
-        <v>0.005844734456888889</v>
+        <v>0.06201411877933333</v>
       </c>
       <c r="R2">
-        <v>0.052602610112</v>
+        <v>0.558127069014</v>
       </c>
       <c r="S2">
-        <v>0.001677719987796164</v>
+        <v>0.02470419871925173</v>
       </c>
       <c r="T2">
-        <v>0.001677719987796164</v>
+        <v>0.02470419871925173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H3">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>38.901004</v>
       </c>
       <c r="O3">
-        <v>0.7035291475092547</v>
+        <v>0.6873021241557511</v>
       </c>
       <c r="P3">
-        <v>0.7035291475092547</v>
+        <v>0.6873021241557511</v>
       </c>
       <c r="Q3">
-        <v>2.450910211348444</v>
+        <v>1.725311395405333</v>
       </c>
       <c r="R3">
-        <v>22.058191902136</v>
+        <v>15.527802558648</v>
       </c>
       <c r="S3">
-        <v>0.7035291475092547</v>
+        <v>0.6873021241557511</v>
       </c>
       <c r="T3">
-        <v>0.7035291475092547</v>
+        <v>0.6873021241557511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H4">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>16.300318</v>
       </c>
       <c r="O4">
-        <v>0.2947931325029493</v>
+        <v>0.2879936771249972</v>
       </c>
       <c r="P4">
-        <v>0.2947931325029493</v>
+        <v>0.2879936771249972</v>
       </c>
       <c r="Q4">
-        <v>1.026981612979111</v>
+        <v>0.7229408370573334</v>
       </c>
       <c r="R4">
-        <v>9.242834516812001</v>
+        <v>6.506467533516001</v>
       </c>
       <c r="S4">
-        <v>0.2947931325029493</v>
+        <v>0.2879936771249972</v>
       </c>
       <c r="T4">
-        <v>0.2947931325029493</v>
+        <v>0.2879936771249972</v>
       </c>
     </row>
   </sheetData>
